--- a/test-data-2/dst.xlsx
+++ b/test-data-2/dst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbp/Local/echidna/test-data-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B14BA6-B741-FF47-B2CA-1DBA7D625889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEA8E8-6295-8242-A7A5-84041A8E5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="780" windowWidth="28040" windowHeight="16860" xr2:uid="{7D6889E7-5024-244E-8C0A-CD8B5E96B893}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="16860" xr2:uid="{7D6889E7-5024-244E-8C0A-CD8B5E96B893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>key</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CEA476-3D96-8F40-88E8-972A47DE6575}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +512,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-data-2/dst.xlsx
+++ b/test-data-2/dst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbp/Local/echidna/test-data-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEA8E8-6295-8242-A7A5-84041A8E5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F43FE1-D3C0-EE43-A060-25830705DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="16860" xr2:uid="{7D6889E7-5024-244E-8C0A-CD8B5E96B893}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>PAT_ENC_CSN_ID</t>
   </si>
 </sst>
 </file>
@@ -437,23 +437,26 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -461,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -475,13 +478,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -503,13 +506,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -517,10 +520,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -531,13 +534,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test-data-2/dst.xlsx
+++ b/test-data-2/dst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbp/Local/echidna/test-data-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F43FE1-D3C0-EE43-A060-25830705DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B4B33-4932-EC4C-8DB4-12C742F9520E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="16860" xr2:uid="{7D6889E7-5024-244E-8C0A-CD8B5E96B893}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>z</t>
   </si>
   <si>
-    <t>PAT_ENC_CSN_ID</t>
+    <t>CSN</t>
   </si>
 </sst>
 </file>
@@ -436,9 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CEA476-3D96-8F40-88E8-972A47DE6575}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
